--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_2.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-263724.5473518896</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10789929.87827662</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>28102228.99127814</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.358744596005241e-10</v>
+        <v>1441324.164630585</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,13 +22646,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22667,13 +22667,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22731,7 +22731,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22901,7 +22901,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,10 +22983,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,16 +23120,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,7 +23202,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>129.0132581705354</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -23293,7 +23293,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
@@ -23302,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,16 +23357,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -23384,7 +23384,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,16 +23439,16 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>127.6855444652332</v>
@@ -23457,10 +23457,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,16 +23594,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -23618,10 +23618,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23679,7 +23679,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23691,13 +23691,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -23776,10 +23776,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,13 +23831,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -23852,13 +23852,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23913,28 +23913,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -24016,7 +24016,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,16 +24068,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,10 +24150,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
@@ -24168,10 +24168,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,13 +24305,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -24329,10 +24329,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
         <v>134.8846762812383</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -24481,16 +24481,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>134.8846762812383</v>
@@ -24645,7 +24645,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24718,16 +24718,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,16 +24779,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -24800,13 +24800,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -24879,10 +24879,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24946,7 +24946,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
@@ -24955,16 +24955,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,13 +25016,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -25040,10 +25040,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25177,13 +25177,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
@@ -25192,16 +25192,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,28 +25335,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25420,25 +25420,25 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,13 +25490,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -25511,13 +25511,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -25672,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,13 +25727,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -25745,7 +25745,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -25754,7 +25754,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25909,10 +25909,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -25982,16 +25982,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,28 +26046,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>120926.4176592548</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>102099.225979565</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>107621.6974958375</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>140127.0453966398</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>103277.6941598719</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>139443.061481451</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>58279.33615411952</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>88384.74687993804</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>118126.7293172681</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>141405.839695944</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>154206.7599428177</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>205848.5148834982</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>186168.4172826686</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>112473.1726767752</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.175067154690623e-11</v>
+        <v>129265.8798234157</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>3406.377962232532</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2876.034534635635</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3031.597112558804</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3947.240715398305</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2909.230821404843</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3927.973562857777</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1641.671440961113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2489.711179716567</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3327.513501894877</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3983.263090026594</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4343.852392755429</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5798.549715028122</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5244.180768525875</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3168.258385261277</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3641.292389391992</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5109.566943348797</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4314.051801953453</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4547.395668838206</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>5920.861073097457</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4363.846232107264</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>5891.960344286665</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2462.50716144167</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>3734.566769574849</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>4991.270252842316</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5974.894635039889</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6515.778589133142</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8697.824572542182</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>7866.271152788812</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4752.387577891915</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5461.93858408799</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660708</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-54153.64424660707</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-20526.04424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-20526.04424660709</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_2.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_3_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-263724.5473518896</v>
+        <v>-109163.0501070898</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10789929.87827662</v>
+        <v>13476767.25690909</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>28102228.99127814</v>
+        <v>30789066.36991068</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1441324.164630585</v>
+        <v>-1.358744596005241e-10</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8236,10 +8236,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8309,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -8473,10 +8473,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8710,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -8865,10 +8865,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,7 +9087,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -9099,13 +9099,13 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -9576,10 +9576,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -9813,10 +9813,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9889,16 +9889,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,10 +10032,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,16 +10187,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -10287,10 +10287,10 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10354,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10363,16 +10363,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -10524,10 +10524,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,28 +10743,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10828,25 +10828,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10998,10 +10998,10 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -11235,10 +11235,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11317,10 +11317,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>33.63624132272333</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>106.7437663446525</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -22591,10 +22591,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,13 +22646,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22667,13 +22667,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22731,7 +22731,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -22746,10 +22746,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
@@ -22828,10 +22828,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,10 +22883,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
@@ -22901,7 +22901,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -22910,7 +22910,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -22983,10 +22983,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -23065,10 +23065,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,16 +23120,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -23147,7 +23147,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,7 +23202,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K10" t="n">
         <v>129.0132581705354</v>
@@ -23220,10 +23220,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,7 +23281,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K11" t="n">
         <v>220.0898510449805</v>
@@ -23293,7 +23293,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
@@ -23302,10 +23302,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,16 +23357,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
@@ -23384,7 +23384,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,16 +23439,16 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L13" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
         <v>127.6855444652332</v>
@@ -23457,10 +23457,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23539,10 +23539,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,16 +23594,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -23618,10 +23618,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23679,7 +23679,7 @@
         <v>126.9954214393961</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L16" t="n">
         <v>134.8846762812383</v>
@@ -23691,13 +23691,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -23776,10 +23776,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,13 +23831,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -23852,13 +23852,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23913,28 +23913,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K19" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -24016,7 +24016,7 @@
         <v>222.3056898744495</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,16 +24068,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -24095,7 +24095,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,10 +24150,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L22" t="n">
         <v>134.8846762812383</v>
@@ -24168,10 +24168,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q22" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24250,10 +24250,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,13 +24305,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -24329,10 +24329,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,10 +24387,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K25" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L25" t="n">
         <v>134.8846762812383</v>
@@ -24405,10 +24405,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K26" t="n">
         <v>220.0898510449805</v>
@@ -24481,16 +24481,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -24569,7 +24569,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,10 +24624,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K28" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L28" t="n">
         <v>134.8846762812383</v>
@@ -24645,7 +24645,7 @@
         <v>137.7280040491476</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24718,16 +24718,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,16 +24779,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
@@ -24800,13 +24800,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K31" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -24879,10 +24879,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24946,7 +24946,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
         <v>230.3462332272727</v>
@@ -24955,16 +24955,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,13 +25016,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -25040,10 +25040,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K34" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -25116,10 +25116,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q34" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25177,13 +25177,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
@@ -25192,16 +25192,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -25280,7 +25280,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,28 +25335,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25420,25 +25420,25 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,13 +25490,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -25511,13 +25511,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K40" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -25590,10 +25590,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K41" t="n">
         <v>220.0898510449805</v>
@@ -25672,10 +25672,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,13 +25727,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
@@ -25745,7 +25745,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -25754,7 +25754,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,10 +25809,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K43" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
@@ -25827,10 +25827,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>181.0459045266863</v>
       </c>
       <c r="K44" t="n">
         <v>220.0898510449805</v>
@@ -25909,10 +25909,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>222.3056898744495</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,10 +25964,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
@@ -25982,16 +25982,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,28 +26046,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>93.35918011667277</v>
+        <v>126.9954214393961</v>
       </c>
       <c r="K46" t="n">
-        <v>22.26949182588285</v>
+        <v>129.0132581705354</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>137.7280040491476</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>151.5050016294458</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>120926.4176592548</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>102099.225979565</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>107621.6974958375</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>140127.0453966398</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>103277.6941598719</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>139443.061481451</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>58279.33615411952</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88384.74687993804</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118126.7293172681</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141405.839695944</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154206.7599428177</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>205848.5148834982</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>186168.4172826686</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>112473.1726767752</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>129265.8798234157</v>
+        <v>-1.175067154690623e-11</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3406.377962232532</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2876.034534635635</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3031.597112558804</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3947.240715398305</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2909.230821404843</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3927.973562857777</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1641.671440961113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2489.711179716567</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3327.513501894877</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3983.263090026594</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4343.852392755429</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5798.549715028122</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5244.180768525875</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3168.258385261277</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3641.292389391992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5109.566943348797</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4314.051801953453</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4547.395668838206</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5920.861073097457</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4363.846232107264</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5891.960344286665</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2462.50716144167</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3734.566769574849</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>4991.270252842316</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>5974.894635039889</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6515.778589133142</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>8697.824572542182</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>7866.271152788812</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4752.387577891915</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>5461.93858408799</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="C6" t="n">
-        <v>-54153.64424660708</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="D6" t="n">
-        <v>-54153.64424660707</v>
+        <v>-35680.2044246607</v>
       </c>
       <c r="E6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="F6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="G6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="H6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="I6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="J6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="K6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="L6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="M6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="N6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="O6" t="n">
-        <v>-20526.04424660708</v>
+        <v>-2052.604424660708</v>
       </c>
       <c r="P6" t="n">
-        <v>-20526.04424660709</v>
+        <v>-2052.604424660708</v>
       </c>
     </row>
   </sheetData>
